--- a/Student Files/PR6-Data.xlsx
+++ b/Student Files/PR6-Data.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gself\Desktop\Excel 365 Exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF644F04-1C0C-4091-8883-CC4C85EA0173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12120" windowHeight="9090" activeTab="1"/>
+    <workbookView xWindow="31395" yWindow="645" windowWidth="21435" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Season Stats" sheetId="1" r:id="rId1"/>
     <sheet name="Player Stats" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Player Stats'!$A$1:$G$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Season Stats'!$A$1:$G$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Player Stats'!$A$1:$F$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Season Stats'!$A$1:$F$6</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -47,68 +58,68 @@
     <t>SEASON STATISTICS</t>
   </si>
   <si>
+    <t>Game 1</t>
+  </si>
+  <si>
+    <t>Game 2</t>
+  </si>
+  <si>
+    <t>Game 3</t>
+  </si>
+  <si>
+    <t>Game 4</t>
+  </si>
+  <si>
+    <t>Game 5</t>
+  </si>
+  <si>
+    <t>Game 6</t>
+  </si>
+  <si>
+    <t>Game 7</t>
+  </si>
+  <si>
+    <t>Game 8</t>
+  </si>
+  <si>
+    <t>Game 9</t>
+  </si>
+  <si>
+    <t>Game 10</t>
+  </si>
+  <si>
+    <t>TOTAL SEASON</t>
+  </si>
+  <si>
+    <t>Played</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Shots</t>
+  </si>
+  <si>
+    <t>Goals</t>
+  </si>
+  <si>
+    <t>Goal Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>PLAYER STATISTICS</t>
   </si>
   <si>
     <t>PLAYER NAME</t>
-  </si>
-  <si>
-    <t>Game 1</t>
-  </si>
-  <si>
-    <t>Game 2</t>
-  </si>
-  <si>
-    <t>Game 3</t>
-  </si>
-  <si>
-    <t>Game 4</t>
-  </si>
-  <si>
-    <t>Game 5</t>
-  </si>
-  <si>
-    <t>Game 6</t>
-  </si>
-  <si>
-    <t>Game 7</t>
-  </si>
-  <si>
-    <t>Game 8</t>
-  </si>
-  <si>
-    <t>Game 9</t>
-  </si>
-  <si>
-    <t>Game 10</t>
-  </si>
-  <si>
-    <t>TOTAL SEASON</t>
-  </si>
-  <si>
-    <t>Played</t>
-  </si>
-  <si>
-    <t>Started</t>
-  </si>
-  <si>
-    <t>Shots</t>
-  </si>
-  <si>
-    <t>Goals</t>
-  </si>
-  <si>
-    <t>Goal Percentage</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -134,37 +145,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="47"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="47"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color indexed="47"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="47"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="9"/>
       <color indexed="47"/>
       <name val="Century Gothic"/>
@@ -219,18 +199,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -257,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -348,11 +322,74 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -361,78 +398,108 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,347 +869,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G22"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="7" width="17.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10" style="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="2:7" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
-        <v>1</v>
-      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="2:7" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="2:7" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="9" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="2:7" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="2:7" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="24" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="24" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="10"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="11">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:D7"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.75"/>
-  <pageSetup scale="77" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="28.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10" style="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="8.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>8</v>
-      </c>
+    <row r="1" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
-        <v>1</v>
-      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="27"/>
       <c r="C5" s="17"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="9">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLinesSet="0"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.75"/>
-  <pageSetup scale="77" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
